--- a/Model experiment stats.xlsx
+++ b/Model experiment stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LFS\Projects\DS_AI_ML_DL\NLP\PEGASUS-LLM-finetuning-dialogue-summarizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,10 +47,10 @@
     <t>rougeLsum</t>
   </si>
   <si>
-    <t>Model 1</t>
+    <t>Training 1.0</t>
   </si>
   <si>
-    <t>Model 2</t>
+    <t>Training 1.1</t>
   </si>
 </sst>
 </file>
@@ -2368,7 +2368,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,6 +2376,7 @@
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
@@ -2403,7 +2404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>50</v>
       </c>
